--- a/src/test/resources/TestData/testData.xlsx
+++ b/src/test/resources/TestData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Downloads\spring-boot-unit-testing-main\spring-boot-unit-testing-main\RestAssuredFramework\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B562BF76-C466-4659-8035-E3A3EFEF97BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862775C7-3F26-4570-9E04-3B5BD393B53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9000" yWindow="585" windowWidth="9735" windowHeight="9480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -361,8 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1229,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAC43E0-1DAE-44CB-949A-7992B776DA57}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1241,222 +1240,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3">
+        <v>44</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4">
+        <v>54</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5">
+        <v>68</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6">
+        <v>39</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="1">
-        <v>5</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7">
+        <v>86</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="1">
-        <v>6</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8">
+        <v>76</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="1">
-        <v>7</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9">
+        <v>26</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="1">
-        <v>8</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10">
+        <v>22</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="1">
-        <v>9</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11">
+        <v>52</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="D11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11">
         <v>10</v>
       </c>
     </row>

--- a/src/test/resources/TestData/testData.xlsx
+++ b/src/test/resources/TestData/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Downloads\spring-boot-unit-testing-main\spring-boot-unit-testing-main\RestAssuredFramework\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862775C7-3F26-4570-9E04-3B5BD393B53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6703718F-313C-466A-AC77-D356A4B6C5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9000" yWindow="585" windowWidth="9735" windowHeight="9480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="105">
   <si>
     <t>id</t>
   </si>
@@ -328,6 +328,15 @@
   </si>
   <si>
     <t>Striped_Dolphin</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>sold</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1238,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1275,8 +1284,8 @@
       <c r="E2" t="s">
         <v>91</v>
       </c>
-      <c r="F2">
-        <v>1</v>
+      <c r="F2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1295,8 +1304,8 @@
       <c r="E3" t="s">
         <v>91</v>
       </c>
-      <c r="F3">
-        <v>2</v>
+      <c r="F3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1315,8 +1324,8 @@
       <c r="E4" t="s">
         <v>91</v>
       </c>
-      <c r="F4">
-        <v>3</v>
+      <c r="F4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1335,8 +1344,8 @@
       <c r="E5" t="s">
         <v>91</v>
       </c>
-      <c r="F5">
-        <v>4</v>
+      <c r="F5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1355,8 +1364,8 @@
       <c r="E6" t="s">
         <v>91</v>
       </c>
-      <c r="F6">
-        <v>5</v>
+      <c r="F6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1375,8 +1384,8 @@
       <c r="E7" t="s">
         <v>91</v>
       </c>
-      <c r="F7">
-        <v>6</v>
+      <c r="F7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1395,8 +1404,8 @@
       <c r="E8" t="s">
         <v>91</v>
       </c>
-      <c r="F8">
-        <v>7</v>
+      <c r="F8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1415,8 +1424,8 @@
       <c r="E9" t="s">
         <v>91</v>
       </c>
-      <c r="F9">
-        <v>8</v>
+      <c r="F9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1435,8 +1444,8 @@
       <c r="E10" t="s">
         <v>91</v>
       </c>
-      <c r="F10">
-        <v>9</v>
+      <c r="F10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1455,8 +1464,8 @@
       <c r="E11" t="s">
         <v>91</v>
       </c>
-      <c r="F11">
-        <v>10</v>
+      <c r="F11" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
